--- a/biology/Médecine/Virdimura/Virdimura.xlsx
+++ b/biology/Médecine/Virdimura/Virdimura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Virdimura, active vers 1376, est un médecin juif sicilien, la première femme officiellement certifiée comme ayant exercé la médecine en Sicile[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Virdimura, active vers 1376, est un médecin juif sicilien, la première femme officiellement certifiée comme ayant exercé la médecine en Sicile.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les quelques détails biographiques connus de Virdimura attestent qu'il s'agit d'une femme juive vivant à Catane, en Sicile, au XIVe siècle[2],[3].
-Virdimura a été formée à la pratique de la médecine juive, probablement par son mari, Pasquale de Medico de Catane, que l'on suppose également être médecin[2],[3],[4],[5],[6].
-Elle a obtenu une licence royale pour pratiquer la médecine à travers l'île de Sicile le 7 novembre 1376, avec l'approbation des médecins de la cour du roi de Sicile Frédéric III[7],[8]. Virdimura a été invitée à passer des examens pour la certification[6]. Ses patients ont également témoigné en son nom, et les documents d'autorisation indiquent que les examinateurs ont pris en considération les « éloges qui lui ont été universellement donnés »[9],[10].
-Avec cette reconnaissance, elle est devenue la première femme médecin sur l'île et a voyagé dans toute la Sicile pour soigner les patients[2].
-Virdimura s'est concentrée sur le traitement des patients pauvres et handicapés, leur faisant payer moins cher ses services que ses contemporains masculins[2],[4]. Cela signifie probablement qu'elle traitait à la fois des patients féminins et masculins, ainsi que des Juifs et des Gentils[6],[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les quelques détails biographiques connus de Virdimura attestent qu'il s'agit d'une femme juive vivant à Catane, en Sicile, au XIVe siècle,.
+Virdimura a été formée à la pratique de la médecine juive, probablement par son mari, Pasquale de Medico de Catane, que l'on suppose également être médecin.
+Elle a obtenu une licence royale pour pratiquer la médecine à travers l'île de Sicile le 7 novembre 1376, avec l'approbation des médecins de la cour du roi de Sicile Frédéric III,. Virdimura a été invitée à passer des examens pour la certification. Ses patients ont également témoigné en son nom, et les documents d'autorisation indiquent que les examinateurs ont pris en considération les « éloges qui lui ont été universellement donnés »,.
+Avec cette reconnaissance, elle est devenue la première femme médecin sur l'île et a voyagé dans toute la Sicile pour soigner les patients.
+Virdimura s'est concentrée sur le traitement des patients pauvres et handicapés, leur faisant payer moins cher ses services que ses contemporains masculins,. Cela signifie probablement qu'elle traitait à la fois des patients féminins et masculins, ainsi que des Juifs et des Gentils,.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Prix international Virdimura, qui récompense les médecins à mission humanitaire, porte son nom[1].
-En 2020, une place à Catane, dans le district de San Giovanni Galermo (it), porte son nom [12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Prix international Virdimura, qui récompense les médecins à mission humanitaire, porte son nom.
+En 2020, une place à Catane, dans le district de San Giovanni Galermo (it), porte son nom .
 </t>
         </is>
       </c>
